--- a/biology/Botanique/Morella_arborea/Morella_arborea.xlsx
+++ b/biology/Botanique/Morella_arborea/Morella_arborea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morella arborea (Hutch.) M. Cheek est une espèce de plantes de la famille des Myricaceae et du genre Morella, endémique de la ligne montagneuse du Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre monoïque dont la taille est comprise entre 7 et 10 m[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre monoïque dont la taille est comprise entre 7 et 10 m.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, dans la Région du Nord-Ouest (mont Oku, Laikom, Bamenda Highlands, Djottin, Dom), celle de l'Ouest (monts Bamboutos, massif du Mbam) et celle du Sud-Ouest (mont Manengouba, mont Cameroun) ; également en Guinée équatoriale sur l'île de Bioko, autour de Moka[5].
-C'est l'une des rares espèces d'arbres qu'on ne trouve que sur les hauts plateaux du Cameroun. À l'intérieur de cette zone, elle est assez répandue, mais en général plutôt rare[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée principalement au Cameroun, dans la Région du Nord-Ouest (mont Oku, Laikom, Bamenda Highlands, Djottin, Dom), celle de l'Ouest (monts Bamboutos, massif du Mbam) et celle du Sud-Ouest (mont Manengouba, mont Cameroun) ; également en Guinée équatoriale sur l'île de Bioko, autour de Moka.
+C'est l'une des rares espèces d'arbres qu'on ne trouve que sur les hauts plateaux du Cameroun. À l'intérieur de cette zone, elle est assez répandue, mais en général plutôt rare.
 </t>
         </is>
       </c>
